--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.356862722162594</v>
+        <v>1.067569099508484</v>
       </c>
       <c r="D2">
-        <v>0.1750072223266719</v>
+        <v>0.2972902393375034</v>
       </c>
       <c r="E2">
         <v>4.392323238363095</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.9641663974850103</v>
+        <v>0.9829279707501174</v>
       </c>
       <c r="D3">
-        <v>0.3351013517612453</v>
+        <v>0.3363298452418406</v>
       </c>
       <c r="E3">
         <v>4.392323238363095</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.7941970110493645</v>
+        <v>0.8602695769791336</v>
       </c>
       <c r="D4">
-        <v>0.4271929824983198</v>
+        <v>0.3989187246811412</v>
       </c>
       <c r="E4">
         <v>4.392323238363095</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.7207839578174186</v>
+        <v>0.6678845444242354</v>
       </c>
       <c r="D5">
-        <v>0.471142788156734</v>
+        <v>0.5111537394277872</v>
       </c>
       <c r="E5">
         <v>4.392323238363095</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.2100241431908614</v>
+        <v>-0.1606875043405656</v>
       </c>
       <c r="D6">
-        <v>0.8336743116909644</v>
+        <v>0.8738059162430534</v>
       </c>
       <c r="E6">
         <v>3.661708921636328</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.1546461132498858</v>
+        <v>-0.1796496393343356</v>
       </c>
       <c r="D7">
-        <v>0.8771189010336349</v>
+        <v>0.8590720150477924</v>
       </c>
       <c r="E7">
         <v>3.661708921636328</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.4496080783323963</v>
+        <v>-0.3825527662245769</v>
       </c>
       <c r="D8">
-        <v>0.6530510967651573</v>
+        <v>0.7057223204451546</v>
       </c>
       <c r="E8">
         <v>3.661708921636328</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.01386785185712069</v>
+        <v>0.01341334941452847</v>
       </c>
       <c r="D9">
-        <v>0.9889370573503768</v>
+        <v>0.9894189146990597</v>
       </c>
       <c r="E9">
         <v>3.791616448269981</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.1732141875527867</v>
+        <v>-0.1411662265816011</v>
       </c>
       <c r="D10">
-        <v>0.8625039508385008</v>
+        <v>0.8890232749483302</v>
       </c>
       <c r="E10">
         <v>3.791616448269981</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.1914189884420229</v>
+        <v>-0.1958786620863607</v>
       </c>
       <c r="D11">
-        <v>0.8482204892770024</v>
+        <v>0.8465031228363822</v>
       </c>
       <c r="E11">
         <v>3.778740145306497</v>
